--- a/Python/401.xlsx
+++ b/Python/401.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>333@qq.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,35 @@
   <si>
     <t>tip_pwd</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P/F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入成功</t>
+  </si>
+  <si>
+    <t>Email格式错误，请重新输入</t>
+  </si>
+  <si>
+    <t>暂不支持163邮箱</t>
+  </si>
+  <si>
+    <t>输入符合规则</t>
+  </si>
+  <si>
+    <t>"ddd123"已存在，请使用其它登录用户名</t>
+  </si>
+  <si>
+    <t>必须包含字母、数字、特殊字符</t>
+  </si>
+  <si>
+    <t>至少8个字符，最多30个字符</t>
   </si>
 </sst>
 </file>
@@ -443,117 +472,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.25" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="13.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.25" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="1">
         <v>12345678</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>333</v>
       </c>
-      <c r="C3" s="1">
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1">
         <v>123566</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C8" s="2"/>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E8" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="C7" r:id="rId2"/>
+    <hyperlink ref="E7" r:id="rId2"/>
     <hyperlink ref="A7" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Python/401.xlsx
+++ b/Python/401.xlsx
@@ -21,10 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
-    <t>333@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是什么</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -81,30 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ctl00_holderLeft_txt_email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctl00_holderLeft_txt_userName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctl00_holderLeft_txt_pwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tip_email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tip_userName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tip_pwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>预期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,6 +104,34 @@
   </si>
   <si>
     <t>至少8个字符，最多30个字符</t>
+  </si>
+  <si>
+    <t>Email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DisplayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email-error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DisplayName-error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password-error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defafadf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -475,7 +475,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -495,160 +495,160 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
       <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>333</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
         <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
       </c>
       <c r="I2" s="1">
         <v>12345678</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>333</v>
+      <c r="A3" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1">
         <v>123566</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -657,7 +657,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" display="333@qq.com"/>
     <hyperlink ref="E7" r:id="rId2"/>
     <hyperlink ref="A7" r:id="rId3"/>
   </hyperlinks>

--- a/Python/401.xlsx
+++ b/Python/401.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
   <si>
     <t>是什么</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,11 +33,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>叫什么</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>……%&amp;*</t>
+    <t>预期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入成功</t>
+  </si>
+  <si>
+    <t>Email格式错误，请重新输入</t>
+  </si>
+  <si>
+    <t>Email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defafadf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合要求，至少2个字符，最多30个字符!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码必须包含字母、数字和特殊字符的组合!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -45,7 +63,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>de_eeee升水</t>
+    <t>DisplayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P/F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>````</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录用户名已被使用!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email-error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P/F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eeee45123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码必须包含字母、数字和特殊字符的组合!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -53,7 +107,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>的123</t>
+    <t>123@d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不合要求，密码长度要求8-30位!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -61,76 +119,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>eeee45123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4444发发发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4343#@</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123444@163.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P/F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入成功</t>
-  </si>
-  <si>
-    <t>Email格式错误，请重新输入</t>
-  </si>
-  <si>
-    <t>暂不支持163邮箱</t>
-  </si>
-  <si>
-    <t>输入符合规则</t>
-  </si>
-  <si>
-    <t>"ddd123"已存在，请使用其它登录用户名</t>
-  </si>
-  <si>
-    <t>必须包含字母、数字、特殊字符</t>
-  </si>
-  <si>
-    <t>至少8个字符，最多30个字符</t>
-  </si>
-  <si>
-    <t>Email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DisplayName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Email-error</t>
+    <t>Password-error</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DisplayName-error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Password-error</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>defafadf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -138,7 +131,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,14 +144,6 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -179,22 +164,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -472,196 +452,191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="19.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="13.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.25" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="1" customWidth="1"/>
+    <col min="10" max="12" width="24.875" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>26</v>
       </c>
       <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>27</v>
-      </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" t="s">
-        <v>28</v>
-      </c>
       <c r="L1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
         <v>333</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="I2" s="1">
-        <v>12345678</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
+        <v>12334321</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1">
-        <v>123566</v>
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" t="s">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" t="s">
         <v>22</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E8" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="333@qq.com"/>
-    <hyperlink ref="E7" r:id="rId2"/>
-    <hyperlink ref="A7" r:id="rId3"/>
+    <hyperlink ref="I5" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>